--- a/natmiOut/OldD4/LR-pairs_lrc2p/Clcf1-Il6st.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Clcf1-Il6st.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.801563369390202</v>
+        <v>1.200778</v>
       </c>
       <c r="H2">
-        <v>0.801563369390202</v>
+        <v>3.602334</v>
       </c>
       <c r="I2">
-        <v>0.0540902895681152</v>
+        <v>0.07334464402956961</v>
       </c>
       <c r="J2">
-        <v>0.0540902895681152</v>
+        <v>0.08784648530804995</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>41.6955923851178</v>
+        <v>54.43165466666667</v>
       </c>
       <c r="N2">
-        <v>41.6955923851178</v>
+        <v>163.294964</v>
       </c>
       <c r="O2">
-        <v>0.1916523227071156</v>
+        <v>0.2228930782800698</v>
       </c>
       <c r="P2">
-        <v>0.1916523227071156</v>
+        <v>0.2327227899462091</v>
       </c>
       <c r="Q2">
-        <v>33.42165952093547</v>
+        <v>65.36033342733066</v>
       </c>
       <c r="R2">
-        <v>33.42165952093547</v>
+        <v>588.243000845976</v>
       </c>
       <c r="S2">
-        <v>0.01036652963162974</v>
+        <v>0.01634801348310671</v>
       </c>
       <c r="T2">
-        <v>0.01036652963162974</v>
+        <v>0.02044387914785805</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.801563369390202</v>
+        <v>1.200778</v>
       </c>
       <c r="H3">
-        <v>0.801563369390202</v>
+        <v>3.602334</v>
       </c>
       <c r="I3">
-        <v>0.0540902895681152</v>
+        <v>0.07334464402956961</v>
       </c>
       <c r="J3">
-        <v>0.0540902895681152</v>
+        <v>0.08784648530804995</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>117.123907374257</v>
+        <v>126.7095336666667</v>
       </c>
       <c r="N3">
-        <v>117.123907374257</v>
+        <v>380.128601</v>
       </c>
       <c r="O3">
-        <v>0.5383559174667427</v>
+        <v>0.5188649542136915</v>
       </c>
       <c r="P3">
-        <v>0.5383559174667427</v>
+        <v>0.541747194133123</v>
       </c>
       <c r="Q3">
-        <v>93.88223383105537</v>
+        <v>152.1500204171926</v>
       </c>
       <c r="R3">
-        <v>93.88223383105537</v>
+        <v>1369.350183754734</v>
       </c>
       <c r="S3">
-        <v>0.02911982746648444</v>
+        <v>0.03805596536622214</v>
       </c>
       <c r="T3">
-        <v>0.02911982746648444</v>
+        <v>0.04759058693009267</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.801563369390202</v>
+        <v>1.200778</v>
       </c>
       <c r="H4">
-        <v>0.801563369390202</v>
+        <v>3.602334</v>
       </c>
       <c r="I4">
-        <v>0.0540902895681152</v>
+        <v>0.07334464402956961</v>
       </c>
       <c r="J4">
-        <v>0.0540902895681152</v>
+        <v>0.08784648530804995</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.1240259039828</v>
+        <v>17.491284</v>
       </c>
       <c r="N4">
-        <v>14.1240259039828</v>
+        <v>52.473852</v>
       </c>
       <c r="O4">
-        <v>0.06492058789983599</v>
+        <v>0.07162534664261168</v>
       </c>
       <c r="P4">
-        <v>0.06492058789983599</v>
+        <v>0.07478406521259567</v>
       </c>
       <c r="Q4">
-        <v>11.32130179295095</v>
+        <v>21.003149018952</v>
       </c>
       <c r="R4">
-        <v>11.32130179295095</v>
+        <v>189.028341170568</v>
       </c>
       <c r="S4">
-        <v>0.003511573398434404</v>
+        <v>0.005253335552996882</v>
       </c>
       <c r="T4">
-        <v>0.003511573398434404</v>
+        <v>0.006569517285974535</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.801563369390202</v>
+        <v>1.200778</v>
       </c>
       <c r="H5">
-        <v>0.801563369390202</v>
+        <v>3.602334</v>
       </c>
       <c r="I5">
-        <v>0.0540902895681152</v>
+        <v>0.07334464402956961</v>
       </c>
       <c r="J5">
-        <v>0.0540902895681152</v>
+        <v>0.08784648530804995</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.5839805176537</v>
+        <v>14.62863866666667</v>
       </c>
       <c r="N5">
-        <v>14.5839805176537</v>
+        <v>43.88591599999999</v>
       </c>
       <c r="O5">
-        <v>0.0670347530911032</v>
+        <v>0.05990305316690945</v>
       </c>
       <c r="P5">
-        <v>0.0670347530911032</v>
+        <v>0.06254481192001105</v>
       </c>
       <c r="Q5">
-        <v>11.68998456285156</v>
+        <v>17.56574748088266</v>
       </c>
       <c r="R5">
-        <v>11.68998456285156</v>
+        <v>158.091727327944</v>
       </c>
       <c r="S5">
-        <v>0.003625929205824877</v>
+        <v>0.004393568110811356</v>
       </c>
       <c r="T5">
-        <v>0.003625929205824877</v>
+        <v>0.005494341901425998</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.801563369390202</v>
+        <v>1.200778</v>
       </c>
       <c r="H6">
-        <v>0.801563369390202</v>
+        <v>3.602334</v>
       </c>
       <c r="I6">
-        <v>0.0540902895681152</v>
+        <v>0.07334464402956961</v>
       </c>
       <c r="J6">
-        <v>0.0540902895681152</v>
+        <v>0.08784648530804995</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.0309966128071</v>
+        <v>30.9441155</v>
       </c>
       <c r="N6">
-        <v>30.0309966128071</v>
+        <v>61.888231</v>
       </c>
       <c r="O6">
-        <v>0.1380364188352026</v>
+        <v>0.1267135676967176</v>
       </c>
       <c r="P6">
-        <v>0.1380364188352026</v>
+        <v>0.08820113878806125</v>
       </c>
       <c r="Q6">
-        <v>24.0717468311074</v>
+        <v>37.157013121859</v>
       </c>
       <c r="R6">
-        <v>24.0717468311074</v>
+        <v>222.942078731154</v>
       </c>
       <c r="S6">
-        <v>0.007466429865741738</v>
+        <v>0.009293761516432521</v>
       </c>
       <c r="T6">
-        <v>0.007466429865741738</v>
+        <v>0.007748160042698697</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.98728589742456</v>
+        <v>3.197813</v>
       </c>
       <c r="H7">
-        <v>2.98728589742456</v>
+        <v>9.593439</v>
       </c>
       <c r="I7">
-        <v>0.2015850092268656</v>
+        <v>0.1953254108237577</v>
       </c>
       <c r="J7">
-        <v>0.2015850092268656</v>
+        <v>0.2339455192570077</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>41.6955923851178</v>
+        <v>54.43165466666667</v>
       </c>
       <c r="N7">
-        <v>41.6955923851178</v>
+        <v>163.294964</v>
       </c>
       <c r="O7">
-        <v>0.1916523227071156</v>
+        <v>0.2228930782800698</v>
       </c>
       <c r="P7">
-        <v>0.1916523227071156</v>
+        <v>0.2327227899462091</v>
       </c>
       <c r="Q7">
-        <v>124.5566551168253</v>
+        <v>174.0622529045773</v>
       </c>
       <c r="R7">
-        <v>124.5566551168253</v>
+        <v>1566.560276141196</v>
       </c>
       <c r="S7">
-        <v>0.03863423524126412</v>
+        <v>0.0435366820848266</v>
       </c>
       <c r="T7">
-        <v>0.03863423524126412</v>
+        <v>0.0544444539369054</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.98728589742456</v>
+        <v>3.197813</v>
       </c>
       <c r="H8">
-        <v>2.98728589742456</v>
+        <v>9.593439</v>
       </c>
       <c r="I8">
-        <v>0.2015850092268656</v>
+        <v>0.1953254108237577</v>
       </c>
       <c r="J8">
-        <v>0.2015850092268656</v>
+        <v>0.2339455192570077</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>117.123907374257</v>
+        <v>126.7095336666667</v>
       </c>
       <c r="N8">
-        <v>117.123907374257</v>
+        <v>380.128601</v>
       </c>
       <c r="O8">
-        <v>0.5383559174667427</v>
+        <v>0.5188649542136915</v>
       </c>
       <c r="P8">
-        <v>0.5383559174667427</v>
+        <v>0.541747194133123</v>
       </c>
       <c r="Q8">
-        <v>349.8825967503784</v>
+        <v>405.1933939832044</v>
       </c>
       <c r="R8">
-        <v>349.8825967503784</v>
+        <v>3646.740545848839</v>
       </c>
       <c r="S8">
-        <v>0.108524482589871</v>
+        <v>0.1013475103438395</v>
       </c>
       <c r="T8">
-        <v>0.108524482589871</v>
+        <v>0.1267393286375004</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.98728589742456</v>
+        <v>3.197813</v>
       </c>
       <c r="H9">
-        <v>2.98728589742456</v>
+        <v>9.593439</v>
       </c>
       <c r="I9">
-        <v>0.2015850092268656</v>
+        <v>0.1953254108237577</v>
       </c>
       <c r="J9">
-        <v>0.2015850092268656</v>
+        <v>0.2339455192570077</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.1240259039828</v>
+        <v>17.491284</v>
       </c>
       <c r="N9">
-        <v>14.1240259039828</v>
+        <v>52.473852</v>
       </c>
       <c r="O9">
-        <v>0.06492058789983599</v>
+        <v>0.07162534664261168</v>
       </c>
       <c r="P9">
-        <v>0.06492058789983599</v>
+        <v>0.07478406521259567</v>
       </c>
       <c r="Q9">
-        <v>42.19250339782699</v>
+        <v>55.933855361892</v>
       </c>
       <c r="R9">
-        <v>42.19250339782699</v>
+        <v>503.404698257028</v>
       </c>
       <c r="S9">
-        <v>0.01308701731080197</v>
+        <v>0.01399025025836218</v>
       </c>
       <c r="T9">
-        <v>0.01308701731080197</v>
+        <v>0.01749539696831062</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.98728589742456</v>
+        <v>3.197813</v>
       </c>
       <c r="H10">
-        <v>2.98728589742456</v>
+        <v>9.593439</v>
       </c>
       <c r="I10">
-        <v>0.2015850092268656</v>
+        <v>0.1953254108237577</v>
       </c>
       <c r="J10">
-        <v>0.2015850092268656</v>
+        <v>0.2339455192570077</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.5839805176537</v>
+        <v>14.62863866666667</v>
       </c>
       <c r="N10">
-        <v>14.5839805176537</v>
+        <v>43.88591599999999</v>
       </c>
       <c r="O10">
-        <v>0.0670347530911032</v>
+        <v>0.05990305316690945</v>
       </c>
       <c r="P10">
-        <v>0.0670347530911032</v>
+        <v>0.06254481192001105</v>
       </c>
       <c r="Q10">
-        <v>43.56651932870143</v>
+        <v>46.77965090056933</v>
       </c>
       <c r="R10">
-        <v>43.56651932870143</v>
+        <v>421.016858105124</v>
       </c>
       <c r="S10">
-        <v>0.01351320132039069</v>
+        <v>0.01170058846942399</v>
       </c>
       <c r="T10">
-        <v>0.01351320132039069</v>
+        <v>0.01463207850145887</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.98728589742456</v>
+        <v>3.197813</v>
       </c>
       <c r="H11">
-        <v>2.98728589742456</v>
+        <v>9.593439</v>
       </c>
       <c r="I11">
-        <v>0.2015850092268656</v>
+        <v>0.1953254108237577</v>
       </c>
       <c r="J11">
-        <v>0.2015850092268656</v>
+        <v>0.2339455192570077</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>30.0309966128071</v>
+        <v>30.9441155</v>
       </c>
       <c r="N11">
-        <v>30.0309966128071</v>
+        <v>61.888231</v>
       </c>
       <c r="O11">
-        <v>0.1380364188352026</v>
+        <v>0.1267135676967176</v>
       </c>
       <c r="P11">
-        <v>0.1380364188352026</v>
+        <v>0.08820113878806125</v>
       </c>
       <c r="Q11">
-        <v>89.71117266704339</v>
+        <v>98.95349481940151</v>
       </c>
       <c r="R11">
-        <v>89.71117266704339</v>
+        <v>593.720968916409</v>
       </c>
       <c r="S11">
-        <v>0.02782607276453779</v>
+        <v>0.02475037966730539</v>
       </c>
       <c r="T11">
-        <v>0.02782607276453779</v>
+        <v>0.02063426121283239</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.20291163798468</v>
+        <v>1.622028</v>
       </c>
       <c r="H12">
-        <v>1.20291163798468</v>
+        <v>4.866084</v>
       </c>
       <c r="I12">
-        <v>0.08117366799451757</v>
+        <v>0.09907498827093329</v>
       </c>
       <c r="J12">
-        <v>0.08117366799451757</v>
+        <v>0.118664281716725</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>41.6955923851178</v>
+        <v>54.43165466666667</v>
       </c>
       <c r="N12">
-        <v>41.6955923851178</v>
+        <v>163.294964</v>
       </c>
       <c r="O12">
-        <v>0.1916523227071156</v>
+        <v>0.2228930782800698</v>
       </c>
       <c r="P12">
-        <v>0.1916523227071156</v>
+        <v>0.2327227899462091</v>
       </c>
       <c r="Q12">
-        <v>50.15611333272361</v>
+        <v>88.289667955664</v>
       </c>
       <c r="R12">
-        <v>50.15611333272361</v>
+        <v>794.607011600976</v>
       </c>
       <c r="S12">
-        <v>0.01555712201380554</v>
+        <v>0.02208312911627013</v>
       </c>
       <c r="T12">
-        <v>0.01555712201380554</v>
+        <v>0.02761588270807918</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.20291163798468</v>
+        <v>1.622028</v>
       </c>
       <c r="H13">
-        <v>1.20291163798468</v>
+        <v>4.866084</v>
       </c>
       <c r="I13">
-        <v>0.08117366799451757</v>
+        <v>0.09907498827093329</v>
       </c>
       <c r="J13">
-        <v>0.08117366799451757</v>
+        <v>0.118664281716725</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>117.123907374257</v>
+        <v>126.7095336666667</v>
       </c>
       <c r="N13">
-        <v>117.123907374257</v>
+        <v>380.128601</v>
       </c>
       <c r="O13">
-        <v>0.5383559174667427</v>
+        <v>0.5188649542136915</v>
       </c>
       <c r="P13">
-        <v>0.5383559174667427</v>
+        <v>0.541747194133123</v>
       </c>
       <c r="Q13">
-        <v>140.8897112667334</v>
+        <v>205.526411474276</v>
       </c>
       <c r="R13">
-        <v>140.8897112667334</v>
+        <v>1849.737703268484</v>
       </c>
       <c r="S13">
-        <v>0.04370032450732927</v>
+        <v>0.05140653925291983</v>
       </c>
       <c r="T13">
-        <v>0.04370032450732927</v>
+        <v>0.06428604166385823</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.20291163798468</v>
+        <v>1.622028</v>
       </c>
       <c r="H14">
-        <v>1.20291163798468</v>
+        <v>4.866084</v>
       </c>
       <c r="I14">
-        <v>0.08117366799451757</v>
+        <v>0.09907498827093329</v>
       </c>
       <c r="J14">
-        <v>0.08117366799451757</v>
+        <v>0.118664281716725</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.1240259039828</v>
+        <v>17.491284</v>
       </c>
       <c r="N14">
-        <v>14.1240259039828</v>
+        <v>52.473852</v>
       </c>
       <c r="O14">
-        <v>0.06492058789983599</v>
+        <v>0.07162534664261168</v>
       </c>
       <c r="P14">
-        <v>0.06492058789983599</v>
+        <v>0.07478406521259567</v>
       </c>
       <c r="Q14">
-        <v>16.989955135098</v>
+        <v>28.371352403952</v>
       </c>
       <c r="R14">
-        <v>16.989955135098</v>
+        <v>255.342171635568</v>
       </c>
       <c r="S14">
-        <v>0.005269842248190181</v>
+        <v>0.007096280378518284</v>
       </c>
       <c r="T14">
-        <v>0.005269842248190181</v>
+        <v>0.008874197382309389</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.20291163798468</v>
+        <v>1.622028</v>
       </c>
       <c r="H15">
-        <v>1.20291163798468</v>
+        <v>4.866084</v>
       </c>
       <c r="I15">
-        <v>0.08117366799451757</v>
+        <v>0.09907498827093329</v>
       </c>
       <c r="J15">
-        <v>0.08117366799451757</v>
+        <v>0.118664281716725</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.5839805176537</v>
+        <v>14.62863866666667</v>
       </c>
       <c r="N15">
-        <v>14.5839805176537</v>
+        <v>43.88591599999999</v>
       </c>
       <c r="O15">
-        <v>0.0670347530911032</v>
+        <v>0.05990305316690945</v>
       </c>
       <c r="P15">
-        <v>0.0670347530911032</v>
+        <v>0.06254481192001105</v>
       </c>
       <c r="Q15">
-        <v>17.54323989282747</v>
+        <v>23.728061519216</v>
       </c>
       <c r="R15">
-        <v>17.54323989282747</v>
+        <v>213.552553672944</v>
       </c>
       <c r="S15">
-        <v>0.005441456791511671</v>
+        <v>0.005934894289904647</v>
       </c>
       <c r="T15">
-        <v>0.005441456791511671</v>
+        <v>0.007421835181595772</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.20291163798468</v>
+        <v>1.622028</v>
       </c>
       <c r="H16">
-        <v>1.20291163798468</v>
+        <v>4.866084</v>
       </c>
       <c r="I16">
-        <v>0.08117366799451757</v>
+        <v>0.09907498827093329</v>
       </c>
       <c r="J16">
-        <v>0.08117366799451757</v>
+        <v>0.118664281716725</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>30.0309966128071</v>
+        <v>30.9441155</v>
       </c>
       <c r="N16">
-        <v>30.0309966128071</v>
+        <v>61.888231</v>
       </c>
       <c r="O16">
-        <v>0.1380364188352026</v>
+        <v>0.1267135676967176</v>
       </c>
       <c r="P16">
-        <v>0.1380364188352026</v>
+        <v>0.08820113878806125</v>
       </c>
       <c r="Q16">
-        <v>36.12463532582417</v>
+        <v>50.19222177623401</v>
       </c>
       <c r="R16">
-        <v>36.12463532582417</v>
+        <v>301.153330657404</v>
       </c>
       <c r="S16">
-        <v>0.0112049224336809</v>
+        <v>0.01255414523332041</v>
       </c>
       <c r="T16">
-        <v>0.0112049224336809</v>
+        <v>0.01046632478088246</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.89274127930474</v>
+        <v>2.243090333333333</v>
       </c>
       <c r="H17">
-        <v>1.89274127930474</v>
+        <v>6.729271</v>
       </c>
       <c r="I17">
-        <v>0.1277240549964304</v>
+        <v>0.1370100568335712</v>
       </c>
       <c r="J17">
-        <v>0.1277240549964304</v>
+        <v>0.1640999435464303</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>41.6955923851178</v>
+        <v>54.43165466666667</v>
       </c>
       <c r="N17">
-        <v>41.6955923851178</v>
+        <v>163.294964</v>
       </c>
       <c r="O17">
-        <v>0.1916523227071156</v>
+        <v>0.2228930782800698</v>
       </c>
       <c r="P17">
-        <v>0.1916523227071156</v>
+        <v>0.2327227899462091</v>
       </c>
       <c r="Q17">
-        <v>78.91896887237684</v>
+        <v>122.0951184101382</v>
       </c>
       <c r="R17">
-        <v>78.91896887237684</v>
+        <v>1098.856065691244</v>
       </c>
       <c r="S17">
-        <v>0.02447861180563726</v>
+        <v>0.030538593322962</v>
       </c>
       <c r="T17">
-        <v>0.02447861180563726</v>
+        <v>0.03818979669214067</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.89274127930474</v>
+        <v>2.243090333333333</v>
       </c>
       <c r="H18">
-        <v>1.89274127930474</v>
+        <v>6.729271</v>
       </c>
       <c r="I18">
-        <v>0.1277240549964304</v>
+        <v>0.1370100568335712</v>
       </c>
       <c r="J18">
-        <v>0.1277240549964304</v>
+        <v>0.1640999435464303</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>117.123907374257</v>
+        <v>126.7095336666667</v>
       </c>
       <c r="N18">
-        <v>117.123907374257</v>
+        <v>380.128601</v>
       </c>
       <c r="O18">
-        <v>0.5383559174667427</v>
+        <v>0.5188649542136915</v>
       </c>
       <c r="P18">
-        <v>0.5383559174667427</v>
+        <v>0.541747194133123</v>
       </c>
       <c r="Q18">
-        <v>221.6852542807211</v>
+        <v>284.2209301088746</v>
       </c>
       <c r="R18">
-        <v>221.6852542807211</v>
+        <v>2557.988370979871</v>
       </c>
       <c r="S18">
-        <v>0.06876100081017597</v>
+        <v>0.07108971686576621</v>
       </c>
       <c r="T18">
-        <v>0.06876100081017597</v>
+        <v>0.0889006839736825</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.89274127930474</v>
+        <v>2.243090333333333</v>
       </c>
       <c r="H19">
-        <v>1.89274127930474</v>
+        <v>6.729271</v>
       </c>
       <c r="I19">
-        <v>0.1277240549964304</v>
+        <v>0.1370100568335712</v>
       </c>
       <c r="J19">
-        <v>0.1277240549964304</v>
+        <v>0.1640999435464303</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>14.1240259039828</v>
+        <v>17.491284</v>
       </c>
       <c r="N19">
-        <v>14.1240259039828</v>
+        <v>52.473852</v>
       </c>
       <c r="O19">
-        <v>0.06492058789983599</v>
+        <v>0.07162534664261168</v>
       </c>
       <c r="P19">
-        <v>0.06492058789983599</v>
+        <v>0.07478406521259567</v>
       </c>
       <c r="Q19">
-        <v>26.73312685843769</v>
+        <v>39.234530057988</v>
       </c>
       <c r="R19">
-        <v>26.73312685843769</v>
+        <v>353.110770521892</v>
       </c>
       <c r="S19">
-        <v>0.008291920739319242</v>
+        <v>0.009813392814228467</v>
       </c>
       <c r="T19">
-        <v>0.008291920739319242</v>
+        <v>0.01227206087955951</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.89274127930474</v>
+        <v>2.243090333333333</v>
       </c>
       <c r="H20">
-        <v>1.89274127930474</v>
+        <v>6.729271</v>
       </c>
       <c r="I20">
-        <v>0.1277240549964304</v>
+        <v>0.1370100568335712</v>
       </c>
       <c r="J20">
-        <v>0.1277240549964304</v>
+        <v>0.1640999435464303</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.5839805176537</v>
+        <v>14.62863866666667</v>
       </c>
       <c r="N20">
-        <v>14.5839805176537</v>
+        <v>43.88591599999999</v>
       </c>
       <c r="O20">
-        <v>0.0670347530911032</v>
+        <v>0.05990305316690945</v>
       </c>
       <c r="P20">
-        <v>0.0670347530911032</v>
+        <v>0.06254481192001105</v>
       </c>
       <c r="Q20">
-        <v>27.60370194233927</v>
+        <v>32.81335798302622</v>
       </c>
       <c r="R20">
-        <v>27.60370194233927</v>
+        <v>295.3202218472359</v>
       </c>
       <c r="S20">
-        <v>0.008561950490480195</v>
+        <v>0.008207320718902704</v>
       </c>
       <c r="T20">
-        <v>0.008561950490480195</v>
+        <v>0.01026360010519591</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.89274127930474</v>
+        <v>2.243090333333333</v>
       </c>
       <c r="H21">
-        <v>1.89274127930474</v>
+        <v>6.729271</v>
       </c>
       <c r="I21">
-        <v>0.1277240549964304</v>
+        <v>0.1370100568335712</v>
       </c>
       <c r="J21">
-        <v>0.1277240549964304</v>
+        <v>0.1640999435464303</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>30.0309966128071</v>
+        <v>30.9441155</v>
       </c>
       <c r="N21">
-        <v>30.0309966128071</v>
+        <v>61.888231</v>
       </c>
       <c r="O21">
-        <v>0.1380364188352026</v>
+        <v>0.1267135676967176</v>
       </c>
       <c r="P21">
-        <v>0.1380364188352026</v>
+        <v>0.08820113878806125</v>
       </c>
       <c r="Q21">
-        <v>56.84090694772082</v>
+        <v>69.41044635160017</v>
       </c>
       <c r="R21">
-        <v>56.84090694772082</v>
+        <v>416.462678109601</v>
       </c>
       <c r="S21">
-        <v>0.01763057115081771</v>
+        <v>0.01736103311171185</v>
       </c>
       <c r="T21">
-        <v>0.01763057115081771</v>
+        <v>0.01447380189585172</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>7.93448613691051</v>
+        <v>8.108010999999999</v>
       </c>
       <c r="H22">
-        <v>7.93448613691051</v>
+        <v>16.216022</v>
       </c>
       <c r="I22">
-        <v>0.5354269782140713</v>
+        <v>0.4952449000421683</v>
       </c>
       <c r="J22">
-        <v>0.5354269782140713</v>
+        <v>0.3954437701717871</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>41.6955923851178</v>
+        <v>54.43165466666667</v>
       </c>
       <c r="N22">
-        <v>41.6955923851178</v>
+        <v>163.294964</v>
       </c>
       <c r="O22">
-        <v>0.1916523227071156</v>
+        <v>0.2228930782800698</v>
       </c>
       <c r="P22">
-        <v>0.1916523227071156</v>
+        <v>0.2327227899462091</v>
       </c>
       <c r="Q22">
-        <v>330.8330997499886</v>
+        <v>441.3324547855347</v>
       </c>
       <c r="R22">
-        <v>330.8330997499886</v>
+        <v>2647.994728713208</v>
       </c>
       <c r="S22">
-        <v>0.102615824014779</v>
+        <v>0.1103866602729043</v>
       </c>
       <c r="T22">
-        <v>0.102615824014779</v>
+        <v>0.09202877746122579</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>7.93448613691051</v>
+        <v>8.108010999999999</v>
       </c>
       <c r="H23">
-        <v>7.93448613691051</v>
+        <v>16.216022</v>
       </c>
       <c r="I23">
-        <v>0.5354269782140713</v>
+        <v>0.4952449000421683</v>
       </c>
       <c r="J23">
-        <v>0.5354269782140713</v>
+        <v>0.3954437701717871</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>117.123907374257</v>
+        <v>126.7095336666667</v>
       </c>
       <c r="N23">
-        <v>117.123907374257</v>
+        <v>380.128601</v>
       </c>
       <c r="O23">
-        <v>0.5383559174667427</v>
+        <v>0.5188649542136915</v>
       </c>
       <c r="P23">
-        <v>0.5383559174667427</v>
+        <v>0.541747194133123</v>
       </c>
       <c r="Q23">
-        <v>929.3180193618329</v>
+        <v>1027.362292774204</v>
       </c>
       <c r="R23">
-        <v>929.3180193618329</v>
+        <v>6164.173756645222</v>
       </c>
       <c r="S23">
-        <v>0.288250282092882</v>
+        <v>0.2569652223849438</v>
       </c>
       <c r="T23">
-        <v>0.288250282092882</v>
+        <v>0.2142305529279892</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>7.93448613691051</v>
+        <v>8.108010999999999</v>
       </c>
       <c r="H24">
-        <v>7.93448613691051</v>
+        <v>16.216022</v>
       </c>
       <c r="I24">
-        <v>0.5354269782140713</v>
+        <v>0.4952449000421683</v>
       </c>
       <c r="J24">
-        <v>0.5354269782140713</v>
+        <v>0.3954437701717871</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>14.1240259039828</v>
+        <v>17.491284</v>
       </c>
       <c r="N24">
-        <v>14.1240259039828</v>
+        <v>52.473852</v>
       </c>
       <c r="O24">
-        <v>0.06492058789983599</v>
+        <v>0.07162534664261168</v>
       </c>
       <c r="P24">
-        <v>0.06492058789983599</v>
+        <v>0.07478406521259567</v>
       </c>
       <c r="Q24">
-        <v>112.0668877325165</v>
+        <v>141.819523076124</v>
       </c>
       <c r="R24">
-        <v>112.0668877325165</v>
+        <v>850.9171384567439</v>
       </c>
       <c r="S24">
-        <v>0.03476023420309018</v>
+        <v>0.03547208763850587</v>
       </c>
       <c r="T24">
-        <v>0.03476023420309018</v>
+        <v>0.02957289269644162</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>7.93448613691051</v>
+        <v>8.108010999999999</v>
       </c>
       <c r="H25">
-        <v>7.93448613691051</v>
+        <v>16.216022</v>
       </c>
       <c r="I25">
-        <v>0.5354269782140713</v>
+        <v>0.4952449000421683</v>
       </c>
       <c r="J25">
-        <v>0.5354269782140713</v>
+        <v>0.3954437701717871</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>14.5839805176537</v>
+        <v>14.62863866666667</v>
       </c>
       <c r="N25">
-        <v>14.5839805176537</v>
+        <v>43.88591599999999</v>
       </c>
       <c r="O25">
-        <v>0.0670347530911032</v>
+        <v>0.05990305316690945</v>
       </c>
       <c r="P25">
-        <v>0.0670347530911032</v>
+        <v>0.06254481192001105</v>
       </c>
       <c r="Q25">
-        <v>115.7163912382963</v>
+        <v>118.6091632243587</v>
       </c>
       <c r="R25">
-        <v>115.7163912382963</v>
+        <v>711.6549793461519</v>
       </c>
       <c r="S25">
-        <v>0.03589221528289576</v>
+        <v>0.02966668157786676</v>
       </c>
       <c r="T25">
-        <v>0.03589221528289576</v>
+        <v>0.0247329562303345</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>7.93448613691051</v>
+        <v>8.108010999999999</v>
       </c>
       <c r="H26">
-        <v>7.93448613691051</v>
+        <v>16.216022</v>
       </c>
       <c r="I26">
-        <v>0.5354269782140713</v>
+        <v>0.4952449000421683</v>
       </c>
       <c r="J26">
-        <v>0.5354269782140713</v>
+        <v>0.3954437701717871</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>30.0309966128071</v>
+        <v>30.9441155</v>
       </c>
       <c r="N26">
-        <v>30.0309966128071</v>
+        <v>61.888231</v>
       </c>
       <c r="O26">
-        <v>0.1380364188352026</v>
+        <v>0.1267135676967176</v>
       </c>
       <c r="P26">
-        <v>0.1380364188352026</v>
+        <v>0.08820113878806125</v>
       </c>
       <c r="Q26">
-        <v>238.2805263019244</v>
+        <v>250.8952288592705</v>
       </c>
       <c r="R26">
-        <v>238.2805263019244</v>
+        <v>1003.580915437082</v>
       </c>
       <c r="S26">
-        <v>0.07390842262042442</v>
+        <v>0.06275424816794742</v>
       </c>
       <c r="T26">
-        <v>0.07390842262042442</v>
+        <v>0.03487859085579599</v>
       </c>
     </row>
   </sheetData>
